--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H2">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>61.80613128593456</v>
+        <v>68.01056298341565</v>
       </c>
       <c r="R2">
-        <v>61.80613128593456</v>
+        <v>612.0950668507409</v>
       </c>
       <c r="S2">
-        <v>0.08280980014904385</v>
+        <v>0.07340549383928559</v>
       </c>
       <c r="T2">
-        <v>0.08280980014904385</v>
+        <v>0.0734054938392856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H3">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>34.54017291751698</v>
+        <v>36.31071482433166</v>
       </c>
       <c r="R3">
-        <v>34.54017291751698</v>
+        <v>326.796433418985</v>
       </c>
       <c r="S3">
-        <v>0.04627801088504497</v>
+        <v>0.03919105851230038</v>
       </c>
       <c r="T3">
-        <v>0.04627801088504497</v>
+        <v>0.0391910585123004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H4">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>77.56116589426959</v>
+        <v>81.68260965805864</v>
       </c>
       <c r="R4">
-        <v>77.56116589426959</v>
+        <v>735.1434869225278</v>
       </c>
       <c r="S4">
-        <v>0.1039188914335586</v>
+        <v>0.08816207419858446</v>
       </c>
       <c r="T4">
-        <v>0.1039188914335586</v>
+        <v>0.08816207419858449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H5">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I5">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J5">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>43.40531643289913</v>
+        <v>50.20189128171398</v>
       </c>
       <c r="R5">
-        <v>43.40531643289913</v>
+        <v>451.8170215354259</v>
       </c>
       <c r="S5">
-        <v>0.05815580921228722</v>
+        <v>0.05418415110163034</v>
       </c>
       <c r="T5">
-        <v>0.05815580921228722</v>
+        <v>0.05418415110163035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H6">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I6">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J6">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>5.506372989788423</v>
+        <v>6.216818798146665</v>
       </c>
       <c r="R6">
-        <v>5.506372989788423</v>
+        <v>55.95136918331998</v>
       </c>
       <c r="S6">
-        <v>0.007377611854088684</v>
+        <v>0.006709967304616936</v>
       </c>
       <c r="T6">
-        <v>0.007377611854088684</v>
+        <v>0.006709967304616936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H7">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>81.60783384872421</v>
+        <v>102.1375020960291</v>
       </c>
       <c r="R7">
-        <v>81.60783384872421</v>
+        <v>919.2375188642619</v>
       </c>
       <c r="S7">
-        <v>0.1093407445346309</v>
+        <v>0.1102395488579963</v>
       </c>
       <c r="T7">
-        <v>0.1093407445346309</v>
+        <v>0.1102395488579963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H8">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J8">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>45.60629558770655</v>
+        <v>54.53102501714111</v>
       </c>
       <c r="R8">
-        <v>45.60629558770655</v>
+        <v>490.7792251542699</v>
       </c>
       <c r="S8">
-        <v>0.06110475036342655</v>
+        <v>0.05885669292168306</v>
       </c>
       <c r="T8">
-        <v>0.06110475036342655</v>
+        <v>0.05885669292168307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H9">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J9">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>102.4105312485937</v>
+        <v>122.6700287305884</v>
       </c>
       <c r="R9">
-        <v>102.4105312485937</v>
+        <v>1104.030258575296</v>
       </c>
       <c r="S9">
-        <v>0.137212853310937</v>
+        <v>0.1324008160385906</v>
       </c>
       <c r="T9">
-        <v>0.137212853310937</v>
+        <v>0.1324008160385906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H10">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J10">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>57.31169024671578</v>
+        <v>75.39263830621465</v>
       </c>
       <c r="R10">
-        <v>57.31169024671578</v>
+        <v>678.5337447559318</v>
       </c>
       <c r="S10">
-        <v>0.07678800657459199</v>
+        <v>0.08137315152153418</v>
       </c>
       <c r="T10">
-        <v>0.07678800657459199</v>
+        <v>0.0813731515215342</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H11">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J11">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>7.270527417107879</v>
+        <v>9.33634887247111</v>
       </c>
       <c r="R11">
-        <v>7.270527417107879</v>
+        <v>84.02713985223998</v>
       </c>
       <c r="S11">
-        <v>0.009741281485545152</v>
+        <v>0.01007695377858758</v>
       </c>
       <c r="T11">
-        <v>0.009741281485545152</v>
+        <v>0.01007695377858758</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H12">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I12">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J12">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>63.61392295721038</v>
+        <v>2.038100213341889</v>
       </c>
       <c r="R12">
-        <v>63.61392295721038</v>
+        <v>18.342901920077</v>
       </c>
       <c r="S12">
-        <v>0.08523193633350884</v>
+        <v>0.002199772301411421</v>
       </c>
       <c r="T12">
-        <v>0.08523193633350884</v>
+        <v>0.002199772301411421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H13">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I13">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J13">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>35.55045192423623</v>
+        <v>1.088137965393889</v>
       </c>
       <c r="R13">
-        <v>35.55045192423623</v>
+        <v>9.793241688545001</v>
       </c>
       <c r="S13">
-        <v>0.04763161449848185</v>
+        <v>0.001174454396657346</v>
       </c>
       <c r="T13">
-        <v>0.04763161449848185</v>
+        <v>0.001174454396657346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H14">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I14">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J14">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>79.82978272565525</v>
+        <v>2.447815998979555</v>
       </c>
       <c r="R14">
-        <v>79.82978272565525</v>
+        <v>22.030343990816</v>
       </c>
       <c r="S14">
-        <v>0.1069584556727873</v>
+        <v>0.002641988749256701</v>
       </c>
       <c r="T14">
-        <v>0.1069584556727873</v>
+        <v>0.002641988749256702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.655695680519691</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H15">
-        <v>0.655695680519691</v>
+        <v>0.060067</v>
       </c>
       <c r="I15">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455084</v>
       </c>
       <c r="J15">
-        <v>0.3072722401968451</v>
+        <v>0.007841054270455085</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>44.6748954844251</v>
+        <v>1.504420502391333</v>
       </c>
       <c r="R15">
-        <v>44.6748954844251</v>
+        <v>13.539784521522</v>
       </c>
       <c r="S15">
-        <v>0.05985683118766207</v>
+        <v>0.001623758502733037</v>
       </c>
       <c r="T15">
-        <v>0.05985683118766207</v>
+        <v>0.001623758502733038</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.060067</v>
+      </c>
+      <c r="I16">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J16">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.91412</v>
+      </c>
+      <c r="O16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q16">
+        <v>0.1863019384488889</v>
+      </c>
+      <c r="R16">
+        <v>1.67671744604</v>
+      </c>
+      <c r="S16">
+        <v>0.0002010803203965781</v>
+      </c>
+      <c r="T16">
+        <v>0.0002010803203965781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.585897</v>
+      </c>
+      <c r="I17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N17">
+        <v>305.374031</v>
+      </c>
+      <c r="O17">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P17">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q17">
+        <v>87.74064340453411</v>
+      </c>
+      <c r="R17">
+        <v>789.665790640807</v>
+      </c>
+      <c r="S17">
+        <v>0.09470066084377263</v>
+      </c>
+      <c r="T17">
+        <v>0.09470066084377263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.585897</v>
+      </c>
+      <c r="I18">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J18">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N18">
+        <v>163.038635</v>
+      </c>
+      <c r="O18">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P18">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q18">
+        <v>46.84456857006612</v>
+      </c>
+      <c r="R18">
+        <v>421.601117130595</v>
+      </c>
+      <c r="S18">
+        <v>0.05056050911404002</v>
+      </c>
+      <c r="T18">
+        <v>0.05056050911404002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="H16">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="I16">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="J16">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="N16">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="O16">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="P16">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="Q16">
-        <v>5.667431043783512</v>
-      </c>
-      <c r="R16">
-        <v>5.667431043783512</v>
-      </c>
-      <c r="S16">
-        <v>0.007593402504404997</v>
-      </c>
-      <c r="T16">
-        <v>0.007593402504404997</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.585897</v>
+      </c>
+      <c r="I19">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J19">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N19">
+        <v>366.762848</v>
+      </c>
+      <c r="O19">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P19">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q19">
+        <v>105.3789942616284</v>
+      </c>
+      <c r="R19">
+        <v>948.4109483546559</v>
+      </c>
+      <c r="S19">
+        <v>0.1137381720534846</v>
+      </c>
+      <c r="T19">
+        <v>0.1137381720534846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.585897</v>
+      </c>
+      <c r="I20">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J20">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N20">
+        <v>225.411366</v>
+      </c>
+      <c r="O20">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P20">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q20">
+        <v>64.76561945614466</v>
+      </c>
+      <c r="R20">
+        <v>582.890575105302</v>
+      </c>
+      <c r="S20">
+        <v>0.06990314550321897</v>
+      </c>
+      <c r="T20">
+        <v>0.06990314550321897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.585897</v>
+      </c>
+      <c r="I21">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J21">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.91412</v>
+      </c>
+      <c r="O21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q21">
+        <v>8.020337685071111</v>
+      </c>
+      <c r="R21">
+        <v>72.18303916564</v>
+      </c>
+      <c r="S21">
+        <v>0.008656550140219259</v>
+      </c>
+      <c r="T21">
+        <v>0.008656550140219257</v>
       </c>
     </row>
   </sheetData>
